--- a/final-project-report/Gantt Chart.xlsx
+++ b/final-project-report/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaWorkSpace\final project report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaWorkSpace\journey\final-project-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2269950D-6CF9-4614-90F0-C6F47F031629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F722A-88D2-4889-9039-4BB70925239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Macro Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +79,6 @@
   </si>
   <si>
     <t>Database module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduce Mysql framwork </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +224,41 @@
   <si>
     <t xml:space="preserve">Apply an AI account
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥0.01 / 1000 Bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$0.01 / h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1.51 / yr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate a free SSL 
+certificate by Certbot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Listening to the port 443
+and 80, transfor request 
+to port 8080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free, alowed broswer to get latitude and longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduce Mybatis framwork </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,65 +429,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J27"/>
+  <dimension ref="C3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -775,7 +780,7 @@
     <col min="2" max="2" width="8.796875" customWidth="1"/>
     <col min="3" max="3" width="19.796875" customWidth="1"/>
     <col min="4" max="4" width="18.44921875" customWidth="1"/>
-    <col min="5" max="5" width="22.796875" customWidth="1"/>
+    <col min="5" max="5" width="24.546875" customWidth="1"/>
     <col min="6" max="7" width="12.546875" customWidth="1"/>
     <col min="8" max="8" width="17.8984375" customWidth="1"/>
     <col min="9" max="9" width="22.1484375" customWidth="1"/>
@@ -783,425 +788,374 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>45148</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45148</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="11"/>
+      <c r="D5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45148</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45148</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="11"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45148</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45209</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="11"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45209</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45209</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="11"/>
+      <c r="D8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45270</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45270</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="12"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="13"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="13"/>
+      <c r="D12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5">
+        <v>45292</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45323</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="13"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5">
+        <v>45323</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45352</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="13"/>
+      <c r="D14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5">
+        <v>45292</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45323</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="14"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5">
+        <v>45323</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45323</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5">
+        <v>45352</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45352</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
-        <v>45148</v>
-      </c>
-      <c r="G4" s="7">
-        <v>45148</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8" cm="1">
-        <f t="array" aca="1" ref="I4" ca="1">I4:I13</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="10"/>
-      <c r="D5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7">
-        <v>45148</v>
-      </c>
-      <c r="G5" s="7">
-        <v>45148</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="10"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7">
-        <v>45148</v>
-      </c>
-      <c r="G6" s="7">
-        <v>45209</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7">
-        <v>45209</v>
-      </c>
-      <c r="G7" s="7">
-        <v>45209</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="10"/>
-      <c r="D8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7">
-        <v>45270</v>
-      </c>
-      <c r="G8" s="7">
-        <v>45270</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="11"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5">
+        <v>45352</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45383</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="12"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="12"/>
-      <c r="D12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7">
-        <v>45292</v>
-      </c>
-      <c r="G12" s="7">
-        <v>45323</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="12"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7">
-        <v>45323</v>
-      </c>
-      <c r="G13" s="7">
-        <v>45352</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="12"/>
-      <c r="D14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7">
-        <v>45292</v>
-      </c>
-      <c r="G14" s="7">
-        <v>45323</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="5" t="s">
+      <c r="I17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="16"/>
+      <c r="D18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="7">
-        <v>45323</v>
-      </c>
-      <c r="G15" s="7">
-        <v>45323</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7">
-        <v>45352</v>
-      </c>
-      <c r="G16" s="7">
-        <v>45352</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="15"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7">
-        <v>45352</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F18" s="5">
         <v>45383</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="15"/>
-      <c r="D18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="5">
+        <v>45383</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="5">
         <v>45383</v>
       </c>
-      <c r="G18" s="7">
-        <v>45383</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="16"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="7">
-        <v>45383</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>45413</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="24" t="s">
-        <v>36</v>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/final-project-report/Gantt Chart.xlsx
+++ b/final-project-report/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaWorkSpace\journey\final-project-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F722A-88D2-4889-9039-4BB70925239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E7DEEC-E084-417B-865C-55EB32CB6504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Macro Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,26 +123,6 @@
   </si>
   <si>
     <t>Buy a domain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create mysql database 
-on AWS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home, weather, register
-page frontend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blog list, blog detail, editor,
- comment page frontern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register, login, logout 
-backend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,16 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Generate and use SSL 
-certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Airbnb room serach 
-frontend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Register an AWS 
 account</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,11 +147,6 @@
   <si>
     <t>Third party interfaces 
 invoking module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Construct project 
-framework</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,22 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>￥0.01 / 1000 Bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$0.01 / h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$1.51 / yr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Generate a free SSL 
 certificate by Certbot</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,11 +203,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Free, alowed broswer to get latitude and longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Introduce Mybatis framwork </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permite broswer to get latitude and longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install sdkman to 
+simplize the process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request and show
+weather information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Register page frontend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Register process backend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Login process backend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logout process backend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blog detail frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor detail frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment page frontern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blog list page frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airbnb room 
+serach frontend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create mysql 
+database on AWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate and use 
+SSL certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page frontend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct 
+project frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,12 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -489,6 +506,15 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -769,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J20"/>
+  <dimension ref="C3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -781,7 +807,7 @@
     <col min="3" max="3" width="19.796875" customWidth="1"/>
     <col min="4" max="4" width="18.44921875" customWidth="1"/>
     <col min="5" max="5" width="24.546875" customWidth="1"/>
-    <col min="6" max="7" width="12.546875" customWidth="1"/>
+    <col min="6" max="7" width="13.94921875" customWidth="1"/>
     <col min="8" max="8" width="17.8984375" customWidth="1"/>
     <col min="9" max="9" width="22.1484375" customWidth="1"/>
     <col min="10" max="10" width="12.34765625" customWidth="1"/>
@@ -789,7 +815,7 @@
   <sheetData>
     <row r="3" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -813,12 +839,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
@@ -829,14 +855,14 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J4" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="11"/>
-      <c r="D5" s="20" t="s">
-        <v>32</v>
+      <c r="D5" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -849,15 +875,15 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>39</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C6" s="11"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
@@ -868,18 +894,16 @@
         <v>45209</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I6" s="4"/>
+      <c r="J6" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C7" s="11"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
@@ -890,22 +914,20 @@
         <v>45209</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C8" s="11"/>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5">
         <v>45270</v>
@@ -914,20 +936,18 @@
         <v>45270</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C9" s="12"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>11</v>
@@ -937,238 +957,362 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J9" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="13"/>
-      <c r="D11" s="21"/>
+      <c r="J10" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="13"/>
-      <c r="D12" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="J11" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5">
-        <v>45292</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45323</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="13"/>
-      <c r="D13" s="21"/>
+      <c r="J12" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5">
-        <v>45323</v>
-      </c>
-      <c r="G13" s="5">
-        <v>45352</v>
+        <v>45</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="13"/>
-      <c r="D14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5">
-        <v>45292</v>
-      </c>
-      <c r="G14" s="5">
-        <v>45323</v>
+      <c r="J13" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="14"/>
-      <c r="D15" s="21"/>
+      <c r="J14" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="25"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="5">
-        <v>45323</v>
-      </c>
-      <c r="G15" s="5">
-        <v>45323</v>
+        <v>47</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="J15" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="21"/>
+      <c r="D16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="5">
+        <v>45292</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45292</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5">
+        <v>45292</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45292</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5">
+        <v>45323</v>
+      </c>
+      <c r="G18" s="5">
+        <v>45323</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5">
+        <v>45323</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45323</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C20" s="21"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5">
+        <v>45323</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45323</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C21" s="21"/>
+      <c r="D21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5">
+        <v>45352</v>
+      </c>
+      <c r="G21" s="5">
+        <v>45352</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="22"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5">
+        <v>45352</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45352</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5">
+        <v>45383</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45383</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5">
-        <v>45352</v>
-      </c>
-      <c r="G16" s="5">
-        <v>45352</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="J23" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="5">
+        <v>45383</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45383</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C25" s="14"/>
+      <c r="D25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="16"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="5">
-        <v>45352</v>
-      </c>
-      <c r="G17" s="5">
-        <v>45383</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="16"/>
-      <c r="D18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5">
-        <v>45383</v>
-      </c>
-      <c r="G18" s="5">
-        <v>45383</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="5">
-        <v>45383</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="E25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5">
         <v>45413</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="G25" s="5">
+        <v>45413</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C26" s="15"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="5">
+        <v>45444</v>
+      </c>
+      <c r="G26" s="5">
+        <v>45444</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C10:C22"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="D16:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
